--- a/cp1/Hurdzhyia_fb-95_Zolotov_fb-94_сp1/эксель/Монограмы без пробелов.xlsx
+++ b/cp1/Hurdzhyia_fb-95_Zolotov_fb-94_сp1/эксель/Монограмы без пробелов.xlsx
@@ -444,7 +444,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -498,12 +498,12 @@
         <v>0.99999999999999867</v>
       </c>
       <c r="G2">
-        <f>-0.5*SUM(D1:D31)</f>
-        <v>2.2325978893084715</v>
+        <f>-SUM(D1:D31)</f>
+        <v>4.4651957786169429</v>
       </c>
       <c r="H2">
         <f>1-(G2/LOG(31,2))</f>
-        <v>0.549352155337961</v>
+        <v>9.8704310675922002E-2</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
